--- a/SignalAnalysis/localization/SignalAnalysis string resources.xlsx
+++ b/SignalAnalysis/localization/SignalAnalysis string resources.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D77C9-8FA7-4F3F-8105-08567058B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7D1BF-4E2A-43FF-9385-96BE78C8694A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C7C20F6-2391-4792-9F49-F927461B5B85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Strings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7468,28 +7468,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{361C809C-CD02-41FE-8E64-125A0CFFF598}" name="Tabla1" displayName="Tabla1" ref="B2:T192" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{361C809C-CD02-41FE-8E64-125A0CFFF598}" name="Tabla1" displayName="Tabla1" ref="B2:T192" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="B2:T192" xr:uid="{361C809C-CD02-41FE-8E64-125A0CFFF598}"/>
   <tableColumns count="19">
     <tableColumn id="2" xr3:uid="{306B7F13-C2D0-44AB-A7A1-3F127AB19942}" name="File"/>
     <tableColumn id="3" xr3:uid="{4BE4152F-0E78-460F-985A-63419EB18C3F}" name="Key"/>
-    <tableColumn id="4" xr3:uid="{5B37EE78-0C3F-4465-87B1-C443D56B1BA9}" name="Comment" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E9AD94F4-7E08-4FA5-8BCE-C0663CAFA37F}" name="English" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{ECDC7491-59B9-41E5-AEA5-6A82354E4DBD}" name=".ar" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{30CFD0D9-9978-4FA5-8F3C-B9F0EB46E86B}" name=".bn-BD" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{7EFED73E-5C98-4EF5-A546-E838C39E0179}" name=".da-DK" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{76D3C6CD-321D-4BC2-935C-18E4A7265A0C}" name=".de-DE" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{875DD4DA-3225-45BF-AC51-85E8D88446A0}" name=".en" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{67BCDB62-8442-4141-88D5-DB4471CB47A4}" name=".es" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{C799691C-0FDB-417D-990F-86CBB4E82BBC}" name=".hi-IN" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{14B18F2D-D4C6-4F00-97E7-B667B32066A2}" name=".it-IT" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{D83F0C89-B9D8-472B-9F70-2F22B5D30EB6}" name=".lt-LT" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{B125EC7E-19F0-4916-91F5-09E881B337DA}" name=".nb-NO" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{B7BEA3B3-FE43-4747-BD69-2593F4B56D99}" name=".nl-BE" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{A1C91DA5-684D-401A-9BD2-83BEA0ADDB30}" name=".pt-BR" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{BE89CA7E-77CB-4DBD-A061-489882767769}" name=".ru-RU" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{5B9E62E4-8359-4DD5-9491-41D63EEE58D3}" name=".zh-Hans" dataDxfId="2"/>
-    <tableColumn id="43" xr3:uid="{0D4B4D26-91F8-4F79-9F37-4D15E69807A5}" name=".tr-TR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5B37EE78-0C3F-4465-87B1-C443D56B1BA9}" name="Comment" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E9AD94F4-7E08-4FA5-8BCE-C0663CAFA37F}" name="English" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{ECDC7491-59B9-41E5-AEA5-6A82354E4DBD}" name=".ar" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{30CFD0D9-9978-4FA5-8F3C-B9F0EB46E86B}" name=".bn-BD" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{7EFED73E-5C98-4EF5-A546-E838C39E0179}" name=".da-DK" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{76D3C6CD-321D-4BC2-935C-18E4A7265A0C}" name=".de-DE" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{875DD4DA-3225-45BF-AC51-85E8D88446A0}" name=".en" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{67BCDB62-8442-4141-88D5-DB4471CB47A4}" name=".es" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{C799691C-0FDB-417D-990F-86CBB4E82BBC}" name=".hi-IN" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{14B18F2D-D4C6-4F00-97E7-B667B32066A2}" name=".it-IT" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{D83F0C89-B9D8-472B-9F70-2F22B5D30EB6}" name=".lt-LT" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{B125EC7E-19F0-4916-91F5-09E881B337DA}" name=".nb-NO" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{B7BEA3B3-FE43-4747-BD69-2593F4B56D99}" name=".nl-BE" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{A1C91DA5-684D-401A-9BD2-83BEA0ADDB30}" name=".pt-BR" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{BE89CA7E-77CB-4DBD-A061-489882767769}" name=".ru-RU" dataDxfId="2"/>
+    <tableColumn id="41" xr3:uid="{5B9E62E4-8359-4DD5-9491-41D63EEE58D3}" name=".zh-Hans" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{0D4B4D26-91F8-4F79-9F37-4D15E69807A5}" name=".tr-TR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7796,28 +7796,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" customWidth="1"/>
-    <col min="25" max="25" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" customWidth="1"/>
-    <col min="35" max="35" width="16.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" customWidth="1"/>
-    <col min="41" max="41" width="18.77734375" customWidth="1"/>
-    <col min="43" max="43" width="16.109375" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" customWidth="1"/>
+    <col min="41" max="41" width="18.7109375" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>148</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>148</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>148</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>148</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>148</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>148</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>148</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>148</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>148</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>148</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>148</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>148</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>148</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>148</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>148</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>148</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>148</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>148</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>148</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>148</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>148</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>148</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>148</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>148</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>148</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>148</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>148</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>148</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>148</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>148</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>148</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>148</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>148</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>148</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>148</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>148</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>148</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>148</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>148</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>148</v>
       </c>
@@ -11062,7 +11063,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>148</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>148</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>148</v>
       </c>
@@ -11239,7 +11240,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>148</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>148</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>148</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>148</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>148</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>148</v>
       </c>
@@ -11593,7 +11594,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>148</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>148</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>148</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>148</v>
       </c>
@@ -11829,7 +11830,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>148</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>148</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>148</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>148</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>148</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>148</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>148</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>148</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>148</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>148</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>148</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>148</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>148</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>148</v>
       </c>
@@ -12651,7 +12652,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>148</v>
       </c>
@@ -12710,7 +12711,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>148</v>
       </c>
@@ -12769,7 +12770,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>148</v>
       </c>
@@ -12828,7 +12829,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>148</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>148</v>
       </c>
@@ -12942,7 +12943,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>148</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>148</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>148</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -13178,7 +13179,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>148</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>148</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>148</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>148</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>148</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>148</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>148</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>148</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>148</v>
       </c>
@@ -13709,7 +13710,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>148</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>148</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>148</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>148</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>148</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>148</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>148</v>
       </c>
@@ -14122,7 +14123,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>148</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>148</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>148</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>148</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>148</v>
       </c>
@@ -14417,7 +14418,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>148</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>148</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>148</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>148</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>148</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>148</v>
       </c>
@@ -14771,7 +14772,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>148</v>
       </c>
@@ -14830,7 +14831,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>148</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>148</v>
       </c>
@@ -14948,7 +14949,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>148</v>
       </c>
@@ -15007,7 +15008,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>148</v>
       </c>
@@ -15066,7 +15067,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>148</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>148</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>148</v>
       </c>
@@ -15243,7 +15244,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>148</v>
       </c>
@@ -15302,7 +15303,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>148</v>
       </c>
@@ -15361,7 +15362,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>148</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>148</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>148</v>
       </c>
@@ -15538,7 +15539,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>148</v>
       </c>
@@ -15597,7 +15598,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>148</v>
       </c>
@@ -15656,7 +15657,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>148</v>
       </c>
@@ -15715,7 +15716,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>148</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>148</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>148</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>148</v>
       </c>
@@ -15951,7 +15952,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>148</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>148</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>148</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>148</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>148</v>
       </c>
@@ -16246,7 +16247,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -16305,7 +16306,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>148</v>
       </c>
@@ -16364,7 +16365,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>148</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>148</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>148</v>
       </c>
@@ -16541,7 +16542,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>148</v>
       </c>
@@ -16600,7 +16601,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>148</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>148</v>
       </c>
@@ -16718,7 +16719,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>148</v>
       </c>
@@ -16777,7 +16778,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>148</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>148</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>148</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>148</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>148</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>148</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>148</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>148</v>
       </c>
@@ -17249,7 +17250,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>148</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>148</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>148</v>
       </c>
@@ -17426,7 +17427,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>148</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>148</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>148</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>148</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>148</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>148</v>
       </c>
@@ -17780,7 +17781,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>148</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>148</v>
       </c>
@@ -17898,7 +17899,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>148</v>
       </c>
@@ -17957,7 +17958,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>148</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>148</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>148</v>
       </c>
@@ -18134,7 +18135,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>148</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>148</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>148</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>148</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>148</v>
       </c>
@@ -18429,7 +18430,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>148</v>
       </c>
@@ -18488,7 +18489,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>148</v>
       </c>
@@ -18547,7 +18548,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>148</v>
       </c>
@@ -18606,7 +18607,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>148</v>
       </c>
@@ -18665,7 +18666,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>148</v>
       </c>
@@ -18724,7 +18725,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>148</v>
       </c>
@@ -18783,7 +18784,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>148</v>
       </c>
@@ -18842,7 +18843,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>148</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>148</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>148</v>
       </c>
@@ -19019,7 +19020,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>148</v>
       </c>

--- a/SignalAnalysis/localization/SignalAnalysis string resources.xlsx
+++ b/SignalAnalysis/localization/SignalAnalysis string resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C422032-A0A4-484B-8F00-FAA671D9AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFC0E49-1A3E-4850-AB67-C548A4821E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8C7C20F6-2391-4792-9F49-F927461B5B85}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="2391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="2393">
   <si>
     <t>File</t>
   </si>
@@ -7442,6 +7431,12 @@
   </si>
   <si>
     <t>Numerisk integrasjon</t>
+  </si>
+  <si>
+    <t>Venstre punktregel, Midtpunktregel, Høyre punktregel, Trapesregel, Simpsons 1/3-regel, Simpsons 3/8-regel, Simpsons sammensatte regel, Rombergs metode</t>
+  </si>
+  <si>
+    <t>Bakover én-punkts differanse, Fremover én-punkts differanse, Sentral tre-punkts differanse, Sentral fem-punkts differanse, Sentral syv-punkts differanse, Sentral ni-punkts differanse, Savitzky–Golay lineær tre-punkts, Savitzky–Golay lineær fem-punkts, Savitzky–Golay lineær syv-punkts, Savitzky–Golay lineær ni-punkts, Savitzky–Golay kubisk fem-punkts, Savitzky–Golay kubisk syv-punkts, Savitzky–Golay kubisk ni-punkts</t>
   </si>
 </sst>
 </file>
@@ -9833,7 +9828,9 @@
       <c r="N34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>2392</v>
+      </c>
       <c r="P34" s="1" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13008,9 @@
       <c r="N88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O88" s="1"/>
+      <c r="O88" s="1" t="s">
+        <v>2391</v>
+      </c>
       <c r="P88" s="1" t="s">
         <v>3</v>
       </c>
